--- a/RSVP_visual_now/Results/RSVP_spatial_cue_extended_letter_duration/RSVP_spatial_cue_extended_letter_durationsubject_level_stats.xlsx
+++ b/RSVP_visual_now/Results/RSVP_spatial_cue_extended_letter_duration/RSVP_spatial_cue_extended_letter_durationsubject_level_stats.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>subject</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>N_l_minus_r_10deg</t>
+  </si>
+  <si>
+    <t>past</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +401,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="H2" t="n">
         <v>0.1707317073170732</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -472,8 +481,11 @@
       <c r="H3" t="n">
         <v>0.3302752293577982</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="H4" t="n">
         <v>-0.2476190476190476</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -524,8 +539,11 @@
       <c r="H5" t="n">
         <v>-0.1348314606741573</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -550,8 +568,11 @@
       <c r="H6" t="n">
         <v>1.692307692307692</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -576,8 +597,11 @@
       <c r="H7" t="n">
         <v>-0.2752293577981652</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -602,8 +626,11 @@
       <c r="H8" t="n">
         <v>-0.4038461538461539</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -628,8 +655,11 @@
       <c r="H9" t="n">
         <v>-0.5272727272727272</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -654,8 +684,11 @@
       <c r="H10" t="n">
         <v>-0.2884615384615384</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -680,8 +713,11 @@
       <c r="H11" t="n">
         <v>0.647887323943662</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -706,8 +742,11 @@
       <c r="H12" t="n">
         <v>-0.4873949579831933</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -732,8 +771,11 @@
       <c r="H13" t="n">
         <v>-0.1904761904761905</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="H14" t="n">
         <v>0.9333333333333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -784,8 +829,11 @@
       <c r="H15" t="n">
         <v>0.2028985507246377</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -810,8 +858,11 @@
       <c r="H16" t="n">
         <v>-0.05504587155963303</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -836,8 +887,11 @@
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -862,8 +916,11 @@
       <c r="H18" t="n">
         <v>-0.06451612903225806</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -888,8 +945,11 @@
       <c r="H19" t="n">
         <v>-0.2127659574468085</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -914,8 +974,11 @@
       <c r="H20" t="n">
         <v>0.1379310344827586</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -939,6 +1002,38 @@
       </c>
       <c r="H21" t="n">
         <v>-0.55</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.041095890410959</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.042553191489362</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RSVP_visual_now/Results/RSVP_spatial_cue_extended_letter_duration/RSVP_spatial_cue_extended_letter_durationsubject_level_stats.xlsx
+++ b/RSVP_visual_now/Results/RSVP_spatial_cue_extended_letter_duration/RSVP_spatial_cue_extended_letter_durationsubject_level_stats.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,6 +1036,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.5289256198347108</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
